--- a/Assets/@Resources/Excels/ShopSheets.xlsx
+++ b/Assets/@Resources/Excels/ShopSheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6975DC-A0C7-4AF9-A147-36D4F54B1D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA5B92-A84C-4D42-97C6-E6C7AFE02A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45180" yWindow="3720" windowWidth="12885" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40785" yWindow="2820" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopList" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>displayTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무기 상인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +85,46 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 스프라이트 name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -448,93 +476,127 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.4140625" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>501</v>
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>502</v>
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>502</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>503</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>504</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6070ED82-93D5-42C8-8438-174FBF5963B8}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -558,13 +620,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
